--- a/ImmocInterface/dataconfig/InterfaceCases.xlsx
+++ b/ImmocInterface/dataconfig/InterfaceCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20355" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>ID</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>是否执行</t>
   </si>
   <si>
     <t>请求方式</t>
@@ -77,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,6 +100,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -104,6 +115,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -112,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,28 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -156,48 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,21 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,31 +245,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,55 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,91 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +436,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,39 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +556,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,115 +574,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,21 +1015,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,25 +1064,29 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="54" spans="1:9">
+    <row r="2" ht="54" spans="1:10">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ImmocInterface/dataconfig/InterfaceCases.xlsx
+++ b/ImmocInterface/dataconfig/InterfaceCases.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="登陆退出" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>ID</t>
   </si>
@@ -52,25 +52,42 @@
     <t>实际结果</t>
   </si>
   <si>
-    <t>Imooc-001</t>
-  </si>
-  <si>
-    <t>Get请求</t>
-  </si>
-  <si>
-    <t>http://httpbin.org/get</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>data2 = {
-    'key1': 'value1',
-    'key2': 'value2'
+    <t>TCRC-001</t>
+  </si>
+  <si>
+    <t>成功登陆</t>
+  </si>
+  <si>
+    <t>http://172.20.12.45:8080/operation/active/login</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{
+    "Content-Type": "application/x-www-form-urlencoded;charset=UTF-8"
 }</t>
+  </si>
+  <si>
+    <t>{
+ "username":"admin",
+ "password":"21232f297a57a5a743894a0e4a801fc3"
+ }</t>
+  </si>
+  <si>
+    <t>TCRC-002</t>
+  </si>
+  <si>
+    <t>用户名错误</t>
+  </si>
+  <si>
+    <t>{
+ "username":"zxf",
+ "password":"21232f297a57a5a743894a0e4a801fc3"
+ }</t>
   </si>
 </sst>
 </file>
@@ -100,51 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -153,6 +125,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -161,37 +157,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -220,17 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +262,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +352,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,37 +406,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,109 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,16 +456,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -472,8 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,25 +539,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -544,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,16 +573,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,121 +591,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -1015,19 +1035,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
     <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1068,7 +1090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:10">
+    <row r="2" ht="108" spans="1:10">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1078,20 +1100,46 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:10">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://httpbin.org/get"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://172.20.12.45:8080/operation/active/login" tooltip="http://172.20.12.45:8080/operation/active/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://172.20.12.45:8080/operation/active/login" tooltip="http://172.20.12.45:8080/operation/active/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
